--- a/biology/Zoologie/Ganga_quadribande/Ganga_quadribande.xlsx
+++ b/biology/Zoologie/Ganga_quadribande/Ganga_quadribande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocles quadricinctus
 Le Ganga quadribande (Pterocles quadricinctus) est une espèce d'oiseaux appartenant à la famille des Pteroclidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le Sahel, jusqu'en Abyssinie et le nord-ouest du Kenya. C’est un migrateur partiel et saisonnier, une partie des oiseaux remontant vers le nord à la saison des pluies.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau grégaire niche dans les milieux ouverts avec quelques arbres, tels que la savane et le maquis, et autres habitats similaires.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nid est une dépression grattée à la surface du sol, dans laquelle sont pondus 2 ou 3 œufs chamois tachetés de brun. La couvaison est assurée par les deux parents.
 </t>
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganga quadribande mesure de 25 à 28 cm de long. La tête, le cou et les parties supérieures sont vert-jaunâtre, avec le dos fortement marqué de brun. Le mâle porte sur le front des bandes noires et blanches ; d’autres bandes noires et blanches séparent la poitrine du ventre fortement barré. La femelle ne possède pas ces bandes sur la tête et la poitrine, et elle a le dos et les flancs densément barrés.
 Ce ganga a une petite tête ressemblant à celle d’un pigeon, mais un corps robuste et compact. Ses longues ailes pointues sont grises par-dessous ; sa queue est courte.
@@ -637,7 +657,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vol est rapide et direct. Les groupes, surtout nocturnes, se rendent aux points d’eau dans la soirée.
 </t>
